--- a/17_TwigFarm/JPN_Parsing 2/test/parsed/1. InnoRules Install Guide of Rule Builder.docx_.xlsx
+++ b/17_TwigFarm/JPN_Parsing 2/test/parsed/1. InnoRules Install Guide of Rule Builder.docx_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>InnoRules Installation Guide</t>
   </si>
@@ -100,9 +100,6 @@
     <t>InnoRulesをインストールするためには、以下の項目が用意されているか確認する必要がある。</t>
   </si>
   <si>
-    <t>。</t>
-  </si>
-  <si>
     <t>InnoRulesのセットアップファイル</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 「Program Files」フォルダにインストールした場合は、InnoRulesは正常に動作しない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 。</t>
   </si>
   <si>
     <t>インストールを行う場合、「インストール」ボタンをクリックすると、「4)インストール中」画面に進む。</t>
@@ -660,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,7 +842,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -893,7 +887,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -923,7 +917,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -943,342 +937,257 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
